--- a/ground_water_excercise1/data_class_assignment.xlsx
+++ b/ground_water_excercise1/data_class_assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Sync\Geol 1110 Fall 2024 Mahmud\Mahmud Geology 2070\HydroGeology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2333e09a6bf37b68/Documents/GitHub/natural-hazards-class/ground_water_excercise1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F75F13-46D0-49C8-AA5A-F97AA899FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{13F75F13-46D0-49C8-AA5A-F97AA899FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E4285FA-D7E1-4750-BF4A-690D5F224A0E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="1728" windowWidth="18864" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>LONGITUDE</t>
   </si>
   <si>
     <t>LATITUDE</t>
-  </si>
-  <si>
-    <t>DEAF SMITH</t>
   </si>
   <si>
     <t>collar elevation</t>
@@ -706,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,25 +733,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1939,17 +1936,6 @@
       <c r="I38" s="1">
         <f>Table1[[#This Row],[Elevation Head (Z)]]+Table1[[#This Row],[pressure to head in feet]]</f>
         <v>3142.6900000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>-102.80879535</v>
-      </c>
-      <c r="B39">
-        <v>35.090661599999997</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
